--- a/data/lab5/newxl.xlsx
+++ b/data/lab5/newxl.xlsx
@@ -421,9 +421,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="4" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
